--- a/src/main/resources/invoice_foreign.xlsx
+++ b/src/main/resources/invoice_foreign.xlsx
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t xml:space="preserve">Baldin Sergey Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice date: October 26, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract: dated as of September 9, 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice number: 2018-10-SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of service: October 2018</t>
+    <t xml:space="preserve">Ivanov Ivan Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice date: October 1, 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract: dated as of September 1, 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice number: 2000-10-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of service: October 2000</t>
   </si>
   <si>
     <t xml:space="preserve">Service Provided: Platform Development</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Bank Address and contact tel #</t>
   </si>
   <si>
-    <t xml:space="preserve">27 Kalanchevskaya str., Moscow, 107078, tel +7 495 755-58-58, SWIFT ALFARUMM</t>
+    <t xml:space="preserve">1 Lenina str., Moscow, 1000000, tel +7 495 755-58-58, SWIFT </t>
   </si>
   <si>
     <t xml:space="preserve">Beneficiary Name</t>
@@ -94,7 +94,23 @@
     <t xml:space="preserve">Your Address that you linked to that bank account</t>
   </si>
   <si>
-    <t xml:space="preserve">PR. LENINA, D. 1, KV. 1, MOSCOW, RUSSIA, 650000</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PR. LENINA, D. 1, KV. 1, MOSCOW, RUSSIA, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1000000</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -106,7 +122,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$$-409]\ #,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -153,6 +169,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -390,7 +411,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/invoice_foreign.xlsx
+++ b/src/main/resources/invoice_foreign.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Ivanov Ivan Invoice</t>
   </si>
@@ -64,53 +64,19 @@
     <t xml:space="preserve">Bank Name</t>
   </si>
   <si>
-    <t xml:space="preserve">AO «BANK»</t>
-  </si>
-  <si>
     <t xml:space="preserve">Account Number</t>
   </si>
   <si>
-    <t xml:space="preserve">0000000000000000000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bank Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bank Address and contact tel #</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Lenina str., Moscow, 1000000, tel +7 495 755-58-58, SWIFT </t>
-  </si>
-  <si>
     <t xml:space="preserve">Beneficiary Name</t>
   </si>
   <si>
-    <t xml:space="preserve">IP Ivanov Ivan Ivanovich</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your Address that you linked to that bank account</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PR. LENINA, D. 1, KV. 1, MOSCOW, RUSSIA, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1000000</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -122,7 +88,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$$-409]\ #,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -169,11 +135,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,6 +342,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -411,7 +376,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -669,9 +634,7 @@
       <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -683,11 +646,9 @@
     </row>
     <row r="19" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -699,11 +660,9 @@
     </row>
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -715,11 +674,9 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -803,14 +760,12 @@
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -819,11 +774,9 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -906,11 +859,11 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1038,10 +991,10 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:E27"/>
+    <mergeCell ref="B21:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:E35"/>
+    <mergeCell ref="B29:D35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>

--- a/src/main/resources/invoice_foreign.xlsx
+++ b/src/main/resources/invoice_foreign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fesswood/work/education/employeeInvoice/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fesswood/work/education/employeeInvoice/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC2EC4F-8434-6948-8514-892575BFD5BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C84F3-94F7-B84A-81A5-595453266CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="20140" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="20600" windowHeight="18760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -851,7 +851,7 @@
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="15">
         <v>0</v>
       </c>
       <c r="C12" s="12"/>

--- a/src/main/resources/invoice_foreign.xlsx
+++ b/src/main/resources/invoice_foreign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fesswood/work/education/employeeInvoice/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fesswood/work/education/employeeInvoice/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C84F3-94F7-B84A-81A5-595453266CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01AE48-9F60-E641-AE29-429F622B3B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="20600" windowHeight="18760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Ivanov Ivan Invoice</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Your Address that you linked to that bank account</t>
+  </si>
+  <si>
+    <t>Purchase Order Number: 12345</t>
   </si>
 </sst>
 </file>
@@ -301,29 +304,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -361,6 +343,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -675,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -692,610 +698,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B12" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B13" s="8">
         <v>0</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B15" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:D35"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:D36"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
